--- a/compton/Compton_1.xlsx
+++ b/compton/Compton_1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24426"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao_\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8190" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre" sheetId="2" r:id="rId1"/>
@@ -12,21 +17,22 @@
     <sheet name="Massa eletrao" sheetId="4" r:id="rId3"/>
     <sheet name="Seção eficaz Diferencial " sheetId="3" r:id="rId4"/>
     <sheet name="Picos" sheetId="5" r:id="rId5"/>
+    <sheet name="Estatistica" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
   <si>
     <t>Nt</t>
   </si>
@@ -233,16 +239,111 @@
   </si>
   <si>
     <t>c50</t>
+  </si>
+  <si>
+    <t>c70</t>
+  </si>
+  <si>
+    <t>c90</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>ey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R/R0 </t>
+  </si>
+  <si>
+    <t>Erro R/R0</t>
+  </si>
+  <si>
+    <t>R corr</t>
+  </si>
+  <si>
+    <t>Erro R corr</t>
+  </si>
+  <si>
+    <t>eficiencia intrínseca</t>
+  </si>
+  <si>
+    <t>Eficiência</t>
+  </si>
+  <si>
+    <t>Erro Eficiência</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>R/R0 (20)</t>
+  </si>
+  <si>
+    <t>Erro R/R0 (20)</t>
+  </si>
+  <si>
+    <t>R/R0 (50)</t>
+  </si>
+  <si>
+    <t>Erro R/R0 (50)</t>
+  </si>
+  <si>
+    <t>fit (20)</t>
+  </si>
+  <si>
+    <t>fit (50)</t>
+  </si>
+  <si>
+    <t>R/R0 TH (20)</t>
+  </si>
+  <si>
+    <t>R/R0 KN (20)</t>
+  </si>
+  <si>
+    <t>#sigma TH (20)</t>
+  </si>
+  <si>
+    <t>#sigma KN (20)</t>
+  </si>
+  <si>
+    <t>R/R0 TH (50)</t>
+  </si>
+  <si>
+    <t>R/R0 KN (50)</t>
+  </si>
+  <si>
+    <t>#sigma TH (50)</t>
+  </si>
+  <si>
+    <t>#sigma KN (50)</t>
+  </si>
+  <si>
+    <t>relatório</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,16 +367,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -418,8 +532,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -443,8 +655,225 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -521,6 +950,75 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="239" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,15 +1034,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,30 +1059,247 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+  <cellStyles count="240">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="239" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -634,7 +1357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -686,7 +1409,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -880,23 +1603,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -909,7 +1632,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -932,7 +1655,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -959,7 +1682,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -986,11 +1709,11 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7">
         <v>20</v>
@@ -1015,7 +1738,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
@@ -1046,7 +1769,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
@@ -1077,7 +1800,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1104,7 +1827,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1">
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1131,7 +1854,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1152,7 +1875,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1165,7 +1888,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1178,7 +1901,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1191,7 +1914,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1204,7 +1927,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1217,7 +1940,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1230,7 +1953,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1257,19 +1980,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1301,7 +2024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +2057,7 @@
         <v>0.54510787135669614</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1367,7 +2090,7 @@
         <v>0.2507866911272349</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1400,7 +2123,7 @@
         <v>0.50567910810314387</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
@@ -1412,15 +2135,15 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E9" s="1"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
@@ -1436,26 +2159,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1486,7 +2209,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1543,7 +2266,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1558,8 +2281,12 @@
         <f>PI()/180</f>
         <v>1.7453292519943295E-2</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3">
+        <v>912.20399999999995</v>
+      </c>
+      <c r="H3">
+        <v>1.2434400000000001</v>
+      </c>
       <c r="I3" s="1">
         <v>662</v>
       </c>
@@ -1567,21 +2294,21 @@
         <f>(I3^2/$I$3)*$I$3/511*SIN(E3+F3)*F3</f>
         <v>0.26123283570902911</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="53">
         <f>G3*$B$12+$C$12</f>
-        <v>-20.580500000000001</v>
-      </c>
-      <c r="L3" s="25">
+        <v>667.60717829199984</v>
+      </c>
+      <c r="L3" s="53">
         <f>H3*$B$12+G3*$B$13+$C$13</f>
-        <v>0.25966899999999998</v>
-      </c>
-      <c r="M3" s="25">
+        <v>1.6948023092919999</v>
+      </c>
+      <c r="M3" s="52">
         <f>1/K3</f>
-        <v>-4.8589684409999757E-2</v>
+        <v>1.4978868300343788E-3</v>
       </c>
       <c r="N3" s="25">
         <f>(M3/K3)*L3</f>
-        <v>6.1306745516679501E-4</v>
+        <v>3.8025685480122105E-6</v>
       </c>
       <c r="O3" s="1">
         <f>1-COS(E3)</f>
@@ -1605,7 +2332,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1620,8 +2347,12 @@
         <f t="shared" ref="F4:F9" si="1">PI()/180</f>
         <v>1.7453292519943295E-2</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4">
+        <v>899.279</v>
+      </c>
+      <c r="H4">
+        <v>1.8829899999999999</v>
+      </c>
       <c r="I4" s="1">
         <f>$I$3/(1+($I$3/511)*(1-COS(E4)))</f>
         <v>649.22230452559177</v>
@@ -1630,21 +2361,21 @@
         <f>(I4^2/$I$3)*$I$3/511*SIN(E4)*F4</f>
         <v>2.4998477614539856</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="51">
         <f t="shared" ref="K4:K9" si="2">G4*$B$12+$C$12</f>
-        <v>-20.580500000000001</v>
-      </c>
-      <c r="L4" s="25">
+        <v>657.85626101699995</v>
+      </c>
+      <c r="L4" s="53">
         <f t="shared" ref="L4:L9" si="3">H4*$B$12+G4*$B$13+$C$13</f>
-        <v>0.25966899999999998</v>
-      </c>
-      <c r="M4" s="25">
+        <v>2.1702507969169997</v>
+      </c>
+      <c r="M4" s="52">
         <f t="shared" ref="M4:M9" si="4">1/K4</f>
-        <v>-4.8589684409999757E-2</v>
+        <v>1.5200888997454697E-3</v>
       </c>
       <c r="N4" s="25">
         <f t="shared" ref="N4:N9" si="5">(M4/K4)*L4</f>
-        <v>6.1306745516679501E-4</v>
+        <v>5.0147339799689779E-6</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ref="O4:O9" si="6">1-COS(E4)</f>
@@ -1668,7 +2399,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1683,8 +2414,12 @@
         <f t="shared" si="1"/>
         <v>1.7453292519943295E-2</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5">
+        <v>832.02499999999998</v>
+      </c>
+      <c r="H5" s="54">
+        <v>3.1139000000000001</v>
+      </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="8">$I$3/(1+($I$3/511)*(1-COS(E5)))</f>
         <v>614.02719104560504</v>
@@ -1693,21 +2428,21 @@
         <f t="shared" ref="J5:J9" si="9">(I5^2/$I$3)*$I$3/511*SIN(E5)*F5</f>
         <v>4.4043655708145195</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="51">
         <f t="shared" si="2"/>
-        <v>-20.580500000000001</v>
-      </c>
-      <c r="L5" s="25">
+        <v>607.11829657499993</v>
+      </c>
+      <c r="L5" s="53">
         <f t="shared" si="3"/>
-        <v>0.25966899999999998</v>
-      </c>
-      <c r="M5" s="25">
+        <v>3.0622313780249999</v>
+      </c>
+      <c r="M5" s="52">
         <f t="shared" si="4"/>
-        <v>-4.8589684409999757E-2</v>
+        <v>1.6471254542012731E-3</v>
       </c>
       <c r="N5" s="25">
         <f t="shared" si="5"/>
-        <v>6.1306745516679501E-4</v>
+        <v>8.3079018996024038E-6</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="6"/>
@@ -1731,7 +2466,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1746,8 +2481,12 @@
         <f t="shared" si="1"/>
         <v>1.7453292519943295E-2</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6">
+        <v>764.57299999999998</v>
+      </c>
+      <c r="H6">
+        <v>2.4855700000000001</v>
+      </c>
       <c r="I6" s="1">
         <f t="shared" si="8"/>
         <v>564.09366981174526</v>
@@ -1756,21 +2495,21 @@
         <f t="shared" si="9"/>
         <v>5.434116240266432</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="51">
         <f t="shared" si="2"/>
-        <v>-20.580500000000001</v>
-      </c>
-      <c r="L6" s="25">
+        <v>556.23095637899996</v>
+      </c>
+      <c r="L6" s="53">
         <f t="shared" si="3"/>
-        <v>0.25966899999999998</v>
-      </c>
-      <c r="M6" s="25">
+        <v>2.5514506517990001</v>
+      </c>
+      <c r="M6" s="52">
         <f t="shared" si="4"/>
-        <v>-4.8589684409999757E-2</v>
+        <v>1.7978143584634085E-3</v>
       </c>
       <c r="N6" s="25">
         <f t="shared" si="5"/>
-        <v>6.1306745516679501E-4</v>
+        <v>8.2466366966990411E-6</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="6"/>
@@ -1794,7 +2533,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1809,8 +2548,12 @@
         <f t="shared" si="1"/>
         <v>1.7453292519943295E-2</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7">
+        <v>639.41200000000003</v>
+      </c>
+      <c r="H7">
+        <v>3.2078899999999999</v>
+      </c>
       <c r="I7" s="1">
         <f t="shared" si="8"/>
         <v>452.56654730407217</v>
@@ -1819,21 +2562,21 @@
         <f t="shared" si="9"/>
         <v>5.3588960334081888</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="51">
         <f t="shared" si="2"/>
-        <v>-20.580500000000001</v>
-      </c>
-      <c r="L7" s="25">
+        <v>461.80661927599999</v>
+      </c>
+      <c r="L7" s="53">
         <f t="shared" si="3"/>
-        <v>0.25966899999999998</v>
-      </c>
-      <c r="M7" s="25">
+        <v>3.0281861203860001</v>
+      </c>
+      <c r="M7" s="52">
         <f t="shared" si="4"/>
-        <v>-4.8589684409999757E-2</v>
+        <v>2.1654085460441337E-3</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" si="5"/>
-        <v>6.1306745516679501E-4</v>
+        <v>1.4199147068043884E-5</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="6"/>
@@ -1857,7 +2600,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1872,8 +2615,12 @@
         <f t="shared" si="1"/>
         <v>1.7453292519943295E-2</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8">
+        <v>510.37900000000002</v>
+      </c>
+      <c r="H8">
+        <v>2.9993500000000002</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="8"/>
         <v>357.37185188964412</v>
@@ -1882,21 +2629,21 @@
         <f t="shared" si="9"/>
         <v>4.0990476721244367</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="51">
         <f t="shared" si="2"/>
-        <v>-20.580500000000001</v>
-      </c>
-      <c r="L8" s="25">
+        <v>364.46115631700002</v>
+      </c>
+      <c r="L8" s="53">
         <f t="shared" si="3"/>
-        <v>0.25966899999999998</v>
-      </c>
-      <c r="M8" s="25">
+        <v>2.8005495694970004</v>
+      </c>
+      <c r="M8" s="52">
         <f t="shared" si="4"/>
-        <v>-4.8589684409999757E-2</v>
+        <v>2.7437766210954531E-3</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="5"/>
-        <v>6.1306745516679501E-4</v>
+        <v>2.1083405739736406E-5</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="6"/>
@@ -1920,7 +2667,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="15" thickBot="1">
+    <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1935,8 +2682,12 @@
         <f t="shared" si="1"/>
         <v>1.7453292519943295E-2</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9">
+        <v>412.19400000000002</v>
+      </c>
+      <c r="H9">
+        <v>3.4271799999999999</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="8"/>
         <v>288.3904518329071</v>
@@ -1945,21 +2696,21 @@
         <f t="shared" si="9"/>
         <v>2.8406532397770712</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="51">
         <f t="shared" si="2"/>
-        <v>-20.580500000000001</v>
-      </c>
-      <c r="L9" s="25">
+        <v>290.38813406199995</v>
+      </c>
+      <c r="L9" s="53">
         <f t="shared" si="3"/>
-        <v>0.25966899999999998</v>
-      </c>
-      <c r="M9" s="25">
+        <v>3.0698140423819997</v>
+      </c>
+      <c r="M9" s="52">
         <f t="shared" si="4"/>
-        <v>-4.8589684409999757E-2</v>
+        <v>3.4436668813281912E-3</v>
       </c>
       <c r="N9" s="25">
         <f t="shared" si="5"/>
-        <v>6.1306745516679501E-4</v>
+        <v>3.6404438438004617E-5</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="6"/>
@@ -1983,12 +2734,12 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2016,7 +2767,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="18"/>
       <c r="B11" s="5" t="s">
         <v>40</v>
@@ -2051,7 +2802,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>38</v>
       </c>
@@ -2088,7 +2839,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="15" thickBot="1">
+    <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
         <v>39</v>
       </c>
@@ -2125,15 +2876,17 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E14" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2156,15 +2909,23 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="E15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2187,15 +2948,23 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1.500498089878782E-3</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3.0460195472685052E-4</v>
+      </c>
+      <c r="H16" s="19">
+        <v>3.8139487996594026E-6</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2218,15 +2987,23 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="E17" s="31">
+        <v>1.519224698779198E-2</v>
+      </c>
+      <c r="F17" s="27">
+        <v>1.5140656217727103E-3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3.0307324403760195E-3</v>
+      </c>
+      <c r="H17" s="19">
+        <v>4.8064610725794941E-6</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2249,15 +3026,23 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="E18" s="31">
+        <v>6.0307379214091572E-2</v>
+      </c>
+      <c r="F18" s="27">
+        <v>1.6471254542012731E-3</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5.9693776091758275E-3</v>
+      </c>
+      <c r="H18" s="19">
+        <v>8.3079018996024038E-6</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2280,15 +3065,23 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="E19" s="31">
+        <v>0.13397459621556129</v>
+      </c>
+      <c r="F19" s="27">
+        <v>1.7978143584634085E-3</v>
+      </c>
+      <c r="G19" s="5">
+        <v>8.726646259971646E-3</v>
+      </c>
+      <c r="H19" s="19">
+        <v>8.2466366966990411E-6</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2311,15 +3104,23 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="E20" s="31">
+        <v>0.35721239031346064</v>
+      </c>
+      <c r="F20" s="27">
+        <v>2.1654085460441337E-3</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1.3369997749032586E-2</v>
+      </c>
+      <c r="H20" s="19">
+        <v>1.4199147068043884E-5</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2342,15 +3143,23 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="E21" s="31">
+        <v>0.65797985667433112</v>
+      </c>
+      <c r="F21" s="27">
+        <v>2.7437766210954531E-3</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1.6400730189408606E-2</v>
+      </c>
+      <c r="H21" s="19">
+        <v>2.1083405739736406E-5</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2373,15 +3182,23 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="E22" s="32">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F22" s="33">
+        <v>3.4436668813281912E-3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="H22" s="34">
+        <v>3.6404438438004617E-5</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2404,13 +3221,11 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2435,13 +3250,11 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2466,13 +3279,11 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2497,7 +3308,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2529,8 +3340,9 @@
       <c r="AC26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E14:H14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2543,22 +3355,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O12" sqref="K11:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.81640625" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2574,10 +3390,15 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="49" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -2604,17 +3425,42 @@
       <c r="J2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="K2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="50">
         <v>0</v>
       </c>
       <c r="C3" s="17">
@@ -2624,8 +3470,12 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1">
+        <v>1893.51</v>
+      </c>
+      <c r="F3" s="1">
+        <v>56.383699999999997</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
@@ -2638,17 +3488,20 @@
       <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="50">
         <v>0</v>
       </c>
       <c r="C4" s="17">
@@ -2658,8 +3511,12 @@
       <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1">
+        <v>1524.63</v>
+      </c>
+      <c r="F4" s="1">
+        <v>54.466799999999999</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
@@ -2672,17 +3529,22 @@
       <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="50">
         <v>10</v>
       </c>
       <c r="C5" s="17">
@@ -2692,8 +3554,12 @@
       <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1">
+        <v>469.892</v>
+      </c>
+      <c r="F5" s="1">
+        <v>26.2014</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
@@ -2711,12 +3577,17 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="50">
         <v>10</v>
       </c>
       <c r="C6" s="17">
@@ -2726,35 +3597,72 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="e">
-        <f>E5-E6*(E4/E3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="1" t="e">
+      <c r="E6" s="1">
+        <v>811.08500000000004</v>
+      </c>
+      <c r="F6" s="1">
+        <v>41.762799999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <f>E6-E5*(E4/E3)</f>
+        <v>432.73397995785604</v>
+      </c>
+      <c r="H6" s="1">
         <f>F6+F5*(E4/E3)+F4*(F5/E3)+F3*F5*E4/(E3*E3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="1" t="e">
+        <v>64.241728340181993</v>
+      </c>
+      <c r="I6" s="1">
         <f>G6/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="1" t="e">
+        <v>86.546795991571202</v>
+      </c>
+      <c r="J6" s="1">
         <f>H6/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.848345668036398</v>
+      </c>
+      <c r="K6" s="1">
+        <v>660.47335440400002</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.0966987307339999</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6:M11" si="1">EXP($G$16)*K6^$H$16</f>
+        <v>0.2473564897154677</v>
+      </c>
+      <c r="N6" s="1">
+        <f>ABS($H$16)*EXP($G$16)*K6^($H$16-1)*L6</f>
+        <v>8.7076374762392033E-4</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6:O11" si="2">I6/M6</f>
+        <v>349.88690246665988</v>
+      </c>
+      <c r="P6" s="1">
+        <f>O6/M6*N6+O6/I6*J6</f>
+        <v>53.174325499212109</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>O6/$O$7</f>
+        <v>13.935192978546272</v>
+      </c>
+      <c r="R6" s="1">
+        <f>Q6/O6*P6+Q6/$O$7*$P$7</f>
+        <v>2.930474534092435</v>
+      </c>
+      <c r="S6" s="1">
+        <f>O6/$O$9</f>
+        <v>42.645466183459611</v>
+      </c>
+      <c r="T6" s="1">
+        <f>S6/O6*P6+S6/$O$9*$P$9</f>
+        <v>9.2733454915705629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="50">
         <v>20</v>
       </c>
       <c r="C7" s="17">
@@ -2764,35 +3672,72 @@
       <c r="D7" s="1">
         <v>100</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>681.87400000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>35.9512</v>
+      </c>
       <c r="G7" s="1">
         <f>E7</f>
-        <v>0</v>
+        <v>681.87400000000002</v>
       </c>
       <c r="H7" s="1">
         <f>F7</f>
-        <v>0</v>
+        <v>35.9512</v>
       </c>
       <c r="I7" s="1">
         <f>G7/D7</f>
-        <v>0</v>
+        <v>6.81874</v>
       </c>
       <c r="J7" s="1">
         <f>H7/D7</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.359512</v>
+      </c>
+      <c r="K7" s="1">
+        <v>607.11829657499993</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3.0622313780249999</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27157477773717736</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" ref="N7:N11" si="3">ABS($H$16)*EXP($G$16)*K7^($H$16-1)*L7</f>
+        <v>1.518974257037562E-3</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="2"/>
+        <v>25.108149058669174</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" ref="P7:P11" si="4">O7/M7*N7+O7/I7*J7</f>
+        <v>1.4642399245441553</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" ref="Q7:Q10" si="5">O7/$O$7</f>
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" ref="R7:R11" si="6">Q7/O7*P7+Q7/$O$7*$P$7</f>
+        <v>0.11663463691590539</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" ref="S7:S11" si="7">O7/$O$9</f>
+        <v>3.0602709448741638</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" ref="T7:T11" si="8">S7/O7*P7+S7/$O$9*$P$9</f>
+        <v>0.37884210808840207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="50">
         <v>30</v>
       </c>
       <c r="C8" s="17">
@@ -2802,35 +3747,72 @@
       <c r="D8" s="1">
         <v>180</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1">
+        <v>725.12699999999995</v>
+      </c>
+      <c r="F8" s="1">
+        <v>36.391199999999998</v>
+      </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G11" si="1">E8</f>
-        <v>0</v>
+        <f t="shared" ref="G8:G11" si="9">E8</f>
+        <v>725.12699999999995</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:H11" si="2">F8</f>
-        <v>0</v>
+        <f t="shared" ref="H8:H11" si="10">F8</f>
+        <v>36.391199999999998</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ref="I8:I11" si="3">G8/D8</f>
-        <v>0</v>
+        <f t="shared" ref="I8:I11" si="11">G8/D8</f>
+        <v>4.028483333333333</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:J11" si="4">H8/D8</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15">
+        <f t="shared" ref="J8:J11" si="12">H8/D8</f>
+        <v>0.20217333333333332</v>
+      </c>
+      <c r="K8" s="1">
+        <v>556.23095637899996</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.5514506517990001</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29925964552305739</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5222166736289578E-3</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="2"/>
+        <v>13.461498713908441</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.74405171047535579</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53614062440259991</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="6"/>
+        <v>6.0900156930035462E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="7"/>
+        <v>1.6407355752259685</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.19811702708028761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="50">
         <v>50</v>
       </c>
       <c r="C9" s="17">
@@ -2840,35 +3822,72 @@
       <c r="D9" s="1">
         <v>250</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1">
+        <v>754.46199999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>43.913400000000003</v>
+      </c>
       <c r="G9" s="1">
+        <f t="shared" si="9"/>
+        <v>754.46199999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="10"/>
+        <v>43.913400000000003</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="11"/>
+        <v>3.0178479999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="12"/>
+        <v>0.17565360000000002</v>
+      </c>
+      <c r="K9" s="1">
+        <v>461.80661927599999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3.0281861203860001</v>
+      </c>
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
+        <v>0.36782610015842077</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6746148618747331E-3</v>
+      </c>
+      <c r="O9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
+        <v>8.2045510057612248</v>
+      </c>
+      <c r="P9" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.53720389599844609</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.32676845221007689</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="6"/>
+        <v>4.0451859172600191E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="8"/>
+        <v>0.13095266166819422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="50">
         <v>70</v>
       </c>
       <c r="C10" s="17">
@@ -2878,35 +3897,72 @@
       <c r="D10" s="1">
         <v>250</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <v>520.73599999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>40.283900000000003</v>
+      </c>
       <c r="G10" s="1">
+        <f t="shared" si="9"/>
+        <v>520.73599999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="10"/>
+        <v>40.283900000000003</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="11"/>
+        <v>2.0829439999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="12"/>
+        <v>0.16113560000000002</v>
+      </c>
+      <c r="K10" s="1">
+        <v>364.46115631700002</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.8005495694970004</v>
+      </c>
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
+        <v>0.4782427172830413</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0750850809881216E-3</v>
+      </c>
+      <c r="O10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+        <v>4.3554118541176621</v>
+      </c>
+      <c r="P10" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.37404495124262083</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.17346606649261764</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5013428504316489E-2</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.53085316320896747</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="8"/>
+        <v>8.0348252848775364E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="50">
         <v>90</v>
       </c>
       <c r="C11" s="17">
@@ -2916,31 +3972,68 @@
       <c r="D11" s="1">
         <v>430</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1">
+        <v>874.39400000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>61.936300000000003</v>
+      </c>
       <c r="G11" s="1">
+        <f t="shared" si="9"/>
+        <v>874.39400000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="10"/>
+        <v>61.936300000000003</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="11"/>
+        <v>2.0334744186046514</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="12"/>
+        <v>0.14403790697674418</v>
+      </c>
+      <c r="K11" s="1">
+        <v>290.38813406199995</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3.0698140423819997</v>
+      </c>
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
+        <v>0.61527200787584424</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2126799116017737E-3</v>
+      </c>
+      <c r="O11" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
+        <v>3.305000703063004</v>
+      </c>
+      <c r="P11" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.27284813384429496</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>O11/$O$7</f>
+        <v>0.13163059910710045</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8543259053491357E-2</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.40282529790383859</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="8"/>
+        <v>5.9631228197792027E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2956,8 +4049,2100 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+    </row>
+    <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="59"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+    </row>
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+    </row>
+    <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="18">
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="C16" s="5">
+        <v>13.935192978546272</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" ref="D16:D21" si="13">PI()/180</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2.930474534092435</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="20">
+        <v>5.8031800000000002</v>
+      </c>
+      <c r="H16" s="34">
+        <v>-1.1089100000000001</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="18">
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="13"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0.11663463691590539</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="1">
+        <v>10</v>
+      </c>
+      <c r="K17" s="36">
+        <v>660.47335440400002</v>
+      </c>
+      <c r="L17" s="36">
+        <v>2.0966987307339999</v>
+      </c>
+      <c r="M17" s="45">
+        <v>0.2473564897154677</v>
+      </c>
+      <c r="N17" s="45">
+        <v>8.7076374762392033E-4</v>
+      </c>
+      <c r="O17" s="47">
+        <v>86.546795991571202</v>
+      </c>
+      <c r="P17" s="47">
+        <v>12.848345668036398</v>
+      </c>
+      <c r="Q17" s="40">
+        <v>349.88690246665988</v>
+      </c>
+      <c r="R17" s="40">
+        <v>53.174325499212109</v>
+      </c>
+      <c r="S17" s="40">
+        <v>13.935192978546272</v>
+      </c>
+      <c r="T17" s="40">
+        <v>2.930474534092435</v>
+      </c>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="18">
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.53614062440259991</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="13"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E18" s="19">
+        <v>6.0900156930035462E-2</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="1">
+        <v>20</v>
+      </c>
+      <c r="K18" s="36">
+        <v>607.11829657499993</v>
+      </c>
+      <c r="L18" s="36">
+        <v>3.0622313780249999</v>
+      </c>
+      <c r="M18" s="44">
+        <v>0.27157477773717736</v>
+      </c>
+      <c r="N18" s="44">
+        <v>1.518974257037562E-3</v>
+      </c>
+      <c r="O18" s="47">
+        <v>6.81874</v>
+      </c>
+      <c r="P18" s="47">
+        <v>0.359512</v>
+      </c>
+      <c r="Q18" s="40">
+        <v>25.108149058669174</v>
+      </c>
+      <c r="R18" s="40">
+        <v>1.4642399245441553</v>
+      </c>
+      <c r="S18" s="40">
+        <v>1</v>
+      </c>
+      <c r="T18" s="40">
+        <v>0.11663463691590539</v>
+      </c>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="18">
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.32676845221007689</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="13"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E19" s="19">
+        <v>4.0451859172600191E-2</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="1">
+        <v>30</v>
+      </c>
+      <c r="K19" s="36">
+        <v>556.23095637899996</v>
+      </c>
+      <c r="L19" s="36">
+        <v>2.5514506517990001</v>
+      </c>
+      <c r="M19" s="44">
+        <v>0.29925964552305739</v>
+      </c>
+      <c r="N19" s="44">
+        <v>1.5222166736289578E-3</v>
+      </c>
+      <c r="O19" s="47">
+        <v>4.028483333333333</v>
+      </c>
+      <c r="P19" s="47">
+        <v>0.20217333333333332</v>
+      </c>
+      <c r="Q19" s="40">
+        <v>13.461498713908441</v>
+      </c>
+      <c r="R19" s="40">
+        <v>0.74405171047535579</v>
+      </c>
+      <c r="S19" s="41">
+        <v>0.53614062440259991</v>
+      </c>
+      <c r="T19" s="41">
+        <v>6.0900156930035462E-2</v>
+      </c>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="18">
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.17346606649261764</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="13"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2.5013428504316489E-2</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="1">
+        <v>50</v>
+      </c>
+      <c r="K20" s="36">
+        <v>461.80661927599999</v>
+      </c>
+      <c r="L20" s="36">
+        <v>3.0281861203860001</v>
+      </c>
+      <c r="M20" s="44">
+        <v>0.36782610015842077</v>
+      </c>
+      <c r="N20" s="44">
+        <v>2.6746148618747331E-3</v>
+      </c>
+      <c r="O20" s="47">
+        <v>3.0178479999999999</v>
+      </c>
+      <c r="P20" s="47">
+        <v>0.17565360000000002</v>
+      </c>
+      <c r="Q20" s="40">
+        <v>8.2045510057612248</v>
+      </c>
+      <c r="R20" s="40">
+        <v>0.53720389599844609</v>
+      </c>
+      <c r="S20" s="41">
+        <v>0.32676845221007689</v>
+      </c>
+      <c r="T20" s="41">
+        <v>4.0451859172600191E-2</v>
+      </c>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+    </row>
+    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="20">
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.13163059910710045</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="13"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E21" s="34">
+        <v>1.8543259053491357E-2</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
+        <v>70</v>
+      </c>
+      <c r="K21" s="36">
+        <v>364.46115631700002</v>
+      </c>
+      <c r="L21" s="36">
+        <v>2.8005495694970004</v>
+      </c>
+      <c r="M21" s="48">
+        <v>0.4782427172830413</v>
+      </c>
+      <c r="N21" s="48">
+        <v>4.0750850809881216E-3</v>
+      </c>
+      <c r="O21" s="47">
+        <v>2.0829439999999999</v>
+      </c>
+      <c r="P21" s="47">
+        <v>0.16113560000000002</v>
+      </c>
+      <c r="Q21" s="47">
+        <v>4.3554118541176621</v>
+      </c>
+      <c r="R21" s="47">
+        <v>0.37404495124262083</v>
+      </c>
+      <c r="S21" s="17">
+        <v>0.17346606649261764</v>
+      </c>
+      <c r="T21" s="17">
+        <v>2.5013428504316489E-2</v>
+      </c>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1">
+        <v>90</v>
+      </c>
+      <c r="K22" s="36">
+        <v>290.38813406199995</v>
+      </c>
+      <c r="L22" s="36">
+        <v>3.0698140423819997</v>
+      </c>
+      <c r="M22" s="48">
+        <v>0.61527200787584424</v>
+      </c>
+      <c r="N22" s="48">
+        <v>7.2126799116017737E-3</v>
+      </c>
+      <c r="O22" s="47">
+        <v>2.0334744186046514</v>
+      </c>
+      <c r="P22" s="47">
+        <v>0.14403790697674418</v>
+      </c>
+      <c r="Q22" s="47">
+        <v>3.305000703063004</v>
+      </c>
+      <c r="R22" s="47">
+        <v>0.27284813384429496</v>
+      </c>
+      <c r="S22" s="17">
+        <v>0.13163059910710045</v>
+      </c>
+      <c r="T22" s="17">
+        <v>1.8543259053491357E-2</v>
+      </c>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+    </row>
+    <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="18">
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="C26" s="5">
+        <v>42.645466183459611</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" ref="D26:D31" si="14">PI()/180</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E26" s="19">
+        <v>9.2733454915705629</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="18">
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3.0602709448741638</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="14"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0.37884210808840207</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="18">
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1.6407355752259685</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="14"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0.19811702708028761</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="18">
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="14"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0.13095266166819422</v>
+      </c>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B30" s="18">
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.53085316320896747</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="14"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E30" s="19">
+        <v>8.0348252848775364E-2</v>
+      </c>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="20">
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.40282529790383859</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="14"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E31" s="34">
+        <v>5.9631228197792027E-2</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C32" s="35"/>
+      <c r="D32" s="1"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C33" s="35"/>
+      <c r="D33" s="1"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C34" s="35"/>
+      <c r="D34" s="1"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C35" s="35"/>
+      <c r="D35" s="1"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="T47" s="7"/>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="T48" s="7"/>
+    </row>
+    <row r="49" spans="6:20" x14ac:dyDescent="0.35">
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="T49" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="J15:T15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="27">
+        <v>3.1526200000000002</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1.5690999999999999</v>
+      </c>
+      <c r="D3" s="27">
+        <v>-2.0642999999999998E-3</v>
+      </c>
+      <c r="E3" s="28">
+        <v>1.9817799999999998E-3</v>
+      </c>
+      <c r="F3">
+        <v>912.20399999999995</v>
+      </c>
+      <c r="G3">
+        <v>1.1254500000000001</v>
+      </c>
+      <c r="H3">
+        <v>32.284999999999997</v>
+      </c>
+      <c r="I3">
+        <v>1.0198799999999999</v>
+      </c>
+      <c r="J3">
+        <v>1893.51</v>
+      </c>
+      <c r="K3">
+        <v>56.383699999999997</v>
+      </c>
+      <c r="L3">
+        <v>0.55802499999999999</v>
+      </c>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="27">
+        <v>2.2375099999999999</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1.6665700000000001</v>
+      </c>
+      <c r="D4" s="27">
+        <v>-9.3972399999999996E-4</v>
+      </c>
+      <c r="E4" s="28">
+        <v>2.1411500000000001E-3</v>
+      </c>
+      <c r="F4">
+        <v>910.66399999999999</v>
+      </c>
+      <c r="G4">
+        <v>1.2434400000000001</v>
+      </c>
+      <c r="H4">
+        <v>32.665599999999998</v>
+      </c>
+      <c r="I4">
+        <v>1.2365200000000001</v>
+      </c>
+      <c r="J4">
+        <v>1524.63</v>
+      </c>
+      <c r="K4">
+        <v>54.466799999999999</v>
+      </c>
+      <c r="L4">
+        <v>0.51669200000000004</v>
+      </c>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="27">
+        <v>5.4400500000000003</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0.66389299999999996</v>
+      </c>
+      <c r="D5" s="27">
+        <v>-5.4906699999999996E-3</v>
+      </c>
+      <c r="E5" s="28">
+        <v>6.7098899999999998E-4</v>
+      </c>
+      <c r="F5">
+        <v>899.279</v>
+      </c>
+      <c r="G5">
+        <v>1.86842</v>
+      </c>
+      <c r="H5">
+        <v>29.539899999999999</v>
+      </c>
+      <c r="I5">
+        <v>1.5643</v>
+      </c>
+      <c r="J5">
+        <v>469.892</v>
+      </c>
+      <c r="K5">
+        <v>26.2014</v>
+      </c>
+      <c r="L5">
+        <v>0.79555100000000001</v>
+      </c>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="27">
+        <v>2.2346499999999998</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1.43079</v>
+      </c>
+      <c r="D6" s="27">
+        <v>-1.12341E-3</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1.77231E-3</v>
+      </c>
+      <c r="F6">
+        <v>902.74800000000005</v>
+      </c>
+      <c r="G6">
+        <v>1.7829900000000001</v>
+      </c>
+      <c r="H6">
+        <v>29.712700000000002</v>
+      </c>
+      <c r="I6">
+        <v>1.5544</v>
+      </c>
+      <c r="J6">
+        <v>811.08500000000004</v>
+      </c>
+      <c r="K6">
+        <v>41.762799999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.57007799999999997</v>
+      </c>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="27">
+        <v>21.668500000000002</v>
+      </c>
+      <c r="C7" s="27">
+        <v>5.2379699999999998</v>
+      </c>
+      <c r="D7" s="27">
+        <v>2.6539699999999999E-3</v>
+      </c>
+      <c r="E7" s="28">
+        <v>3.5134000000000001E-4</v>
+      </c>
+      <c r="F7">
+        <v>832.02499999999998</v>
+      </c>
+      <c r="G7">
+        <v>3.1139000000000001</v>
+      </c>
+      <c r="H7">
+        <v>42.154400000000003</v>
+      </c>
+      <c r="I7">
+        <v>1.8953500000000001</v>
+      </c>
+      <c r="J7">
+        <v>681.87400000000002</v>
+      </c>
+      <c r="K7">
+        <v>35.9512</v>
+      </c>
+      <c r="L7">
+        <v>1.83914</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="27">
+        <v>25.837</v>
+      </c>
+      <c r="C8" s="27">
+        <v>4.7235399999999998</v>
+      </c>
+      <c r="D8" s="27">
+        <v>3.01323E-3</v>
+      </c>
+      <c r="E8" s="28">
+        <v>2.7102300000000001E-4</v>
+      </c>
+      <c r="F8">
+        <v>764.57299999999998</v>
+      </c>
+      <c r="G8">
+        <v>2.4855700000000001</v>
+      </c>
+      <c r="H8">
+        <v>39.741100000000003</v>
+      </c>
+      <c r="I8">
+        <v>1.74716</v>
+      </c>
+      <c r="J8">
+        <v>725.12699999999995</v>
+      </c>
+      <c r="K8">
+        <v>36.391199999999998</v>
+      </c>
+      <c r="L8">
+        <v>1.3909800000000001</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="27">
+        <v>38.294699999999999</v>
+      </c>
+      <c r="C9" s="27">
+        <v>3.1697799999999998</v>
+      </c>
+      <c r="D9" s="27">
+        <v>3.3282300000000002E-3</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1.5586699999999999E-4</v>
+      </c>
+      <c r="F9">
+        <v>639.41200000000003</v>
+      </c>
+      <c r="G9">
+        <v>3.2078899999999999</v>
+      </c>
+      <c r="H9">
+        <v>46.845799999999997</v>
+      </c>
+      <c r="I9">
+        <v>2.81976</v>
+      </c>
+      <c r="J9">
+        <v>754.46199999999999</v>
+      </c>
+      <c r="K9">
+        <v>43.913400000000003</v>
+      </c>
+      <c r="L9">
+        <v>1.1893</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="27">
+        <v>73.874799999999993</v>
+      </c>
+      <c r="C10" s="27">
+        <v>7.4391800000000003</v>
+      </c>
+      <c r="D10" s="27">
+        <v>4.87514E-3</v>
+      </c>
+      <c r="E10" s="28">
+        <v>2.32105E-4</v>
+      </c>
+      <c r="F10">
+        <v>510.37900000000002</v>
+      </c>
+      <c r="G10">
+        <v>2.9993500000000002</v>
+      </c>
+      <c r="H10">
+        <v>32.098799999999997</v>
+      </c>
+      <c r="I10">
+        <v>2.47607</v>
+      </c>
+      <c r="J10">
+        <v>520.73599999999999</v>
+      </c>
+      <c r="K10">
+        <v>40.283900000000003</v>
+      </c>
+      <c r="L10">
+        <v>1.1846000000000001</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="27">
+        <v>138.43799999999999</v>
+      </c>
+      <c r="C11" s="27">
+        <v>7.6423500000000004</v>
+      </c>
+      <c r="D11" s="27">
+        <v>5.1204800000000002E-3</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1.56133E-4</v>
+      </c>
+      <c r="F11">
+        <v>412.19400000000002</v>
+      </c>
+      <c r="G11">
+        <v>3.4271799999999999</v>
+      </c>
+      <c r="H11">
+        <v>28.922699999999999</v>
+      </c>
+      <c r="I11">
+        <v>2.3997899999999999</v>
+      </c>
+      <c r="J11">
+        <v>874.39400000000001</v>
+      </c>
+      <c r="K11">
+        <v>61.936300000000003</v>
+      </c>
+      <c r="L11">
+        <v>0.97387299999999999</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="I7:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="36">
+        <v>13.935192978546272</v>
+      </c>
+      <c r="D3" s="36">
+        <v>2.930474534092435</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1.0461100000000001</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1.1661900000000001</v>
+      </c>
+      <c r="G3" s="39">
+        <f>(E3-C3)/D3</f>
+        <v>-4.3982920952213655</v>
+      </c>
+      <c r="H3" s="39">
+        <f>(F3-C3)/D3</f>
+        <v>-4.3573157964673523</v>
+      </c>
+      <c r="I3" s="36">
+        <v>42.645466183459611</v>
+      </c>
+      <c r="J3" s="36">
+        <v>9.2733454915705629</v>
+      </c>
+      <c r="K3" s="17">
+        <v>1.39391</v>
+      </c>
+      <c r="L3" s="17">
+        <v>2.5997400000000002</v>
+      </c>
+      <c r="M3" s="36">
+        <f>(K3-I3)/J3</f>
+        <v>-4.4484006576652542</v>
+      </c>
+      <c r="N3" s="36">
+        <f>(L3-I3)/J3</f>
+        <v>-4.3183688367764397</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0.11663463691590539</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="39">
+        <f t="shared" ref="G4:G8" si="0">(E4-C4)/D4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="39">
+        <f t="shared" ref="H4:H8" si="1">(F4-C4)/D4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="36">
+        <v>3.0602709448741638</v>
+      </c>
+      <c r="J4" s="36">
+        <v>0.37884210808840207</v>
+      </c>
+      <c r="K4" s="17">
+        <v>1.3324800000000001</v>
+      </c>
+      <c r="L4" s="17">
+        <v>2.2292700000000001</v>
+      </c>
+      <c r="M4" s="36">
+        <f t="shared" ref="M4:M8" si="2">(K4-I4)/J4</f>
+        <v>-4.560715158070515</v>
+      </c>
+      <c r="N4" s="36">
+        <f t="shared" ref="N4:N8" si="3">(L4-I4)/J4</f>
+        <v>-2.193528457191066</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.53614062440259991</v>
+      </c>
+      <c r="D5" s="17">
+        <v>6.0900156930035462E-2</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.92935699999999999</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.79346899999999998</v>
+      </c>
+      <c r="G5" s="39">
+        <f t="shared" si="0"/>
+        <v>6.4567382978855505</v>
+      </c>
+      <c r="H5" s="39">
+        <f t="shared" si="1"/>
+        <v>4.2254139984077419</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1.6407355752259685</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0.19811702708028761</v>
+      </c>
+      <c r="K5" s="17">
+        <v>1.2383500000000001</v>
+      </c>
+      <c r="L5" s="17">
+        <v>1.76885</v>
+      </c>
+      <c r="M5" s="36">
+        <f t="shared" si="2"/>
+        <v>-2.0310499362727681</v>
+      </c>
+      <c r="N5" s="36">
+        <f t="shared" si="3"/>
+        <v>0.6466603434449516</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.32676845221007689</v>
+      </c>
+      <c r="D6" s="17">
+        <v>4.0451859172600191E-2</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.75048300000000001</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.44857799999999998</v>
+      </c>
+      <c r="G6" s="39">
+        <f t="shared" si="0"/>
+        <v>10.474538289625103</v>
+      </c>
+      <c r="H6" s="39">
+        <f t="shared" si="1"/>
+        <v>3.0112224822643014</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.13095266166819422</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1</v>
+      </c>
+      <c r="L6" s="17">
+        <v>1</v>
+      </c>
+      <c r="M6" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>70</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.17346606649261764</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2.5013428504316489E-2</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.59318400000000004</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.27068300000000001</v>
+      </c>
+      <c r="G7" s="39">
+        <f t="shared" si="0"/>
+        <v>16.779704287037379</v>
+      </c>
+      <c r="H7" s="39">
+        <f t="shared" si="1"/>
+        <v>3.8865896968344802</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.53085316320896747</v>
+      </c>
+      <c r="J7" s="17">
+        <v>8.0348252848775364E-2</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0.79040299999999997</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0.60342399999999996</v>
+      </c>
+      <c r="M7" s="36">
+        <f t="shared" si="2"/>
+        <v>3.2303108977308455</v>
+      </c>
+      <c r="N7" s="36">
+        <f t="shared" si="3"/>
+        <v>0.90320366925238726</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>90</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.13163059910710045</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1.8543259053491357E-2</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.53106100000000001</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.20218900000000001</v>
+      </c>
+      <c r="G8" s="39">
+        <f t="shared" si="0"/>
+        <v>21.540463827888665</v>
+      </c>
+      <c r="H8" s="39">
+        <f t="shared" si="1"/>
+        <v>3.805070116820414</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.40282529790383859</v>
+      </c>
+      <c r="J8" s="17">
+        <v>5.9631228197792027E-2</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0.70762599999999998</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0.45073400000000002</v>
+      </c>
+      <c r="M8" s="36">
+        <f t="shared" si="2"/>
+        <v>5.1114275407033674</v>
+      </c>
+      <c r="N8" s="36">
+        <f t="shared" si="3"/>
+        <v>0.80341632302544719</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2973,8 +6158,12 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2990,8 +6179,12 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3007,564 +6200,203 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="33">
-        <v>3.1526200000000002</v>
-      </c>
-      <c r="C3" s="33">
-        <v>1.5690999999999999</v>
-      </c>
-      <c r="D3" s="33">
-        <v>-2.0642999999999998E-3</v>
-      </c>
-      <c r="E3" s="34">
-        <v>1.9817799999999998E-3</v>
-      </c>
-      <c r="F3" s="7">
-        <v>912.20399999999995</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1.1254500000000001</v>
-      </c>
-      <c r="H3" s="7">
-        <v>32.284999999999997</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1.0198799999999999</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1893.51</v>
-      </c>
-      <c r="K3" s="7">
-        <v>56.383699999999997</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0.55802499999999999</v>
-      </c>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="33">
-        <v>2.2375099999999999</v>
-      </c>
-      <c r="C4" s="33">
-        <v>1.6665700000000001</v>
-      </c>
-      <c r="D4" s="33">
-        <v>-9.3972399999999996E-4</v>
-      </c>
-      <c r="E4" s="34">
-        <v>2.1411500000000001E-3</v>
-      </c>
-      <c r="F4" s="7">
-        <v>910.66399999999999</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1.2434400000000001</v>
-      </c>
-      <c r="H4" s="7">
-        <v>32.665599999999998</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1.2365200000000001</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1524.63</v>
-      </c>
-      <c r="K4" s="7">
-        <v>54.466799999999999</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0.51669200000000004</v>
-      </c>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="33">
-        <v>5.4400500000000003</v>
-      </c>
-      <c r="C5" s="33">
-        <v>0.66389299999999996</v>
-      </c>
-      <c r="D5" s="33">
-        <v>-5.4906699999999996E-3</v>
-      </c>
-      <c r="E5" s="34">
-        <v>6.7098899999999998E-4</v>
-      </c>
-      <c r="F5" s="7">
-        <v>899.279</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1.86842</v>
-      </c>
-      <c r="H5" s="7">
-        <v>29.539899999999999</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1.5643</v>
-      </c>
-      <c r="J5" s="7">
-        <v>469.892</v>
-      </c>
-      <c r="K5" s="7">
-        <v>26.2014</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0.79555100000000001</v>
-      </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="33">
-        <v>2.2346499999999998</v>
-      </c>
-      <c r="C6" s="33">
-        <v>1.43079</v>
-      </c>
-      <c r="D6" s="33">
-        <v>-1.12341E-3</v>
-      </c>
-      <c r="E6" s="34">
-        <v>1.77231E-3</v>
-      </c>
-      <c r="F6" s="7">
-        <v>902.74800000000005</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1.7829900000000001</v>
-      </c>
-      <c r="H6" s="7">
-        <v>29.712700000000002</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1.5544</v>
-      </c>
-      <c r="J6" s="7">
-        <v>811.08500000000004</v>
-      </c>
-      <c r="K6" s="7">
-        <v>41.762799999999999</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0.57007799999999997</v>
-      </c>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="33">
-        <v>21.668500000000002</v>
-      </c>
-      <c r="C7" s="33">
-        <v>5.2379699999999998</v>
-      </c>
-      <c r="D7" s="33">
-        <v>2.6539699999999999E-3</v>
-      </c>
-      <c r="E7" s="34">
-        <v>3.5134000000000001E-4</v>
-      </c>
-      <c r="F7" s="7">
-        <v>832.02499999999998</v>
-      </c>
-      <c r="G7" s="7">
-        <v>3.1139000000000001</v>
-      </c>
-      <c r="H7" s="7">
-        <v>42.154400000000003</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1.8953500000000001</v>
-      </c>
-      <c r="J7" s="7">
-        <v>681.87400000000002</v>
-      </c>
-      <c r="K7" s="7">
-        <v>35.9512</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1.83914</v>
-      </c>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="33">
-        <v>25.837</v>
-      </c>
-      <c r="C8" s="33">
-        <v>4.7235399999999998</v>
-      </c>
-      <c r="D8" s="33">
-        <v>3.01323E-3</v>
-      </c>
-      <c r="E8" s="34">
-        <v>2.7102300000000001E-4</v>
-      </c>
-      <c r="F8" s="7">
-        <v>764.57299999999998</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2.4855700000000001</v>
-      </c>
-      <c r="H8" s="7">
-        <v>39.741100000000003</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1.74716</v>
-      </c>
-      <c r="J8" s="7">
-        <v>725.12699999999995</v>
-      </c>
-      <c r="K8" s="7">
-        <v>36.391199999999998</v>
-      </c>
-      <c r="L8" s="7">
-        <v>1.3909800000000001</v>
-      </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="33">
-        <v>38.294699999999999</v>
-      </c>
-      <c r="C9" s="33">
-        <v>3.1697799999999998</v>
-      </c>
-      <c r="D9" s="33">
-        <v>3.3282300000000002E-3</v>
-      </c>
-      <c r="E9" s="34">
-        <v>1.5586699999999999E-4</v>
-      </c>
-      <c r="F9" s="7">
-        <v>639.41200000000003</v>
-      </c>
-      <c r="G9" s="7">
-        <v>3.2078899999999999</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46.845799999999997</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2.81976</v>
-      </c>
-      <c r="J9" s="7">
-        <v>754.46199999999999</v>
-      </c>
-      <c r="K9" s="7">
-        <v>43.913400000000003</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1.1893</v>
-      </c>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
